--- a/Service.Catalog/wwwroot/layout/excel/loyalty/LealtadesFormulario.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/loyalty/LealtadesFormulario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\Nueva carpeta\Service.Catalog\wwwroot\layout\excel\loyalty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973E7407-238F-4A29-A249-10E58406ABB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A05CB00-C64D-4F4D-A218-B959AD1EB5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="2595" yWindow="180" windowWidth="14280" windowHeight="10875" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lealtades" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
     <t>{{Lealtades.CantidadDescuento}}</t>
   </si>
   <si>
-    <t>{{Lealtades.Vigencia}}   -   {{Lealtades.FechaFinal}}</t>
+    <t>{{Lealtades.FechaInicial}}   -   {{Lealtades.FechaFinal}}</t>
   </si>
 </sst>
 </file>

--- a/Service.Catalog/wwwroot/layout/excel/loyalty/LealtadesFormulario.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/loyalty/LealtadesFormulario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\Nueva carpeta\Service.Catalog\wwwroot\layout\excel\loyalty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A05CB00-C64D-4F4D-A218-B959AD1EB5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4040E4C8-7EEC-43BC-8724-2F0A08A3EB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="180" windowWidth="14280" windowHeight="10875" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="1560" yWindow="645" windowWidth="14280" windowHeight="10875" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lealtades" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Clave</t>
   </si>
@@ -110,7 +110,13 @@
     <t>{{Lealtades.CantidadDescuento}}</t>
   </si>
   <si>
-    <t>{{Lealtades.FechaInicial}}   -   {{Lealtades.FechaFinal}}</t>
+    <t>Lista de Precios</t>
+  </si>
+  <si>
+    <t>{{Lealtades.IdListaPrecios}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{Lealtades.Fecha}}  </t>
   </si>
 </sst>
 </file>
@@ -177,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -187,6 +193,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -561,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A4281-45E9-4A26-88B5-8DB32AE336F4}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:C11"/>
@@ -573,16 +582,16 @@
     <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,8 +599,15 @@
         <v>7</v>
       </c>
       <c r="C3" s="4"/>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -599,8 +615,15 @@
         <v>8</v>
       </c>
       <c r="C5" s="4"/>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -609,7 +632,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -618,37 +641,29 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B13:C13"/>
+  <mergeCells count="8">
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Service.Catalog/wwwroot/layout/excel/loyalty/LealtadesFormulario.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/loyalty/LealtadesFormulario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\Nueva carpeta\Service.Catalog\wwwroot\layout\excel\loyalty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4040E4C8-7EEC-43BC-8724-2F0A08A3EB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E6203A-3ADA-4C25-909B-353CDFC1F326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="645" windowWidth="14280" windowHeight="10875" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="14280" windowHeight="10875" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lealtades" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
     <t>{{Lealtades.IdListaPrecios}}</t>
   </si>
   <si>
-    <t xml:space="preserve">{{Lealtades.Fecha}}  </t>
+    <t xml:space="preserve">{{Lealtades.Fecha2}}  </t>
   </si>
 </sst>
 </file>

--- a/Service.Catalog/wwwroot/layout/excel/loyalty/LealtadesFormulario.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/loyalty/LealtadesFormulario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\Nueva carpeta\Service.Catalog\wwwroot\layout\excel\loyalty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E6203A-3ADA-4C25-909B-353CDFC1F326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2DF148-CDCA-481B-ABA6-F2998F085524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="14280" windowHeight="10875" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="1905" yWindow="195" windowWidth="14865" windowHeight="10875" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lealtades" sheetId="1" r:id="rId1"/>
@@ -113,10 +113,10 @@
     <t>Lista de Precios</t>
   </si>
   <si>
-    <t>{{Lealtades.IdListaPrecios}}</t>
-  </si>
-  <si>
     <t xml:space="preserve">{{Lealtades.Fecha2}}  </t>
+  </si>
+  <si>
+    <t>{{Lealtades.PrecioLista}}</t>
   </si>
 </sst>
 </file>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A4281-45E9-4A26-88B5-8DB32AE336F4}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -646,7 +646,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5"/>
     </row>
